--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -242,31 +242,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神器1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器2</t>
-  </si>
-  <si>
-    <t>神器3</t>
-  </si>
-  <si>
-    <t>神器4</t>
-  </si>
-  <si>
-    <t>神器5</t>
-  </si>
-  <si>
-    <t>神器6</t>
-  </si>
-  <si>
-    <t>神器7</t>
-  </si>
-  <si>
-    <t>神器大点等级</t>
-  </si>
-  <si>
     <t>商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -315,15 +290,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -879,20 +854,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -901,14 +876,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -949,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,10 +983,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -1020,7 +995,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -1271,7 +1246,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3">
         <v>104</v>
@@ -1310,7 +1285,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20101</v>
       </c>
@@ -1520,22 +1495,20 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>20301</v>
+        <v>301</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="3">
-        <v>203</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1544,22 +1517,20 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>20302</v>
+        <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="3">
-        <v>203</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1568,231 +1539,51 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>20303</v>
+        <v>30201</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="3">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3">
-        <v>101</v>
-      </c>
-      <c r="G25" s="3">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>20304</v>
+        <v>30202</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="3">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3">
-        <v>102</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>20305</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3">
-        <v>203</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="3">
-        <v>103</v>
-      </c>
-      <c r="G27" s="3">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20306</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3">
-        <v>203</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="3">
-        <v>104</v>
-      </c>
-      <c r="G28" s="3">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20307</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3">
-        <v>203</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="3">
-        <v>105</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="3">
-        <v>106</v>
-      </c>
-      <c r="J29" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>301</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3">
-        <v>301</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>302</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="3">
-        <v>302</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>30201</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="3">
-        <v>302</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="3">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>30202</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3">
-        <v>302</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>sheet名</t>
   </si>
@@ -299,6 +299,158 @@
   </si>
   <si>
     <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级解锁</t>
+  </si>
+  <si>
+    <t>等级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgIcon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关卡</t>
+  </si>
+  <si>
+    <t>困难关卡</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>芦花古楼-风</t>
+  </si>
+  <si>
+    <t>芦花古楼-花</t>
+  </si>
+  <si>
+    <t>芦花古楼-雪</t>
+  </si>
+  <si>
+    <t>芦花古楼-月</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>寄灵人培养</t>
+  </si>
+  <si>
+    <t>寄灵人升级</t>
+  </si>
+  <si>
+    <t>寄灵人升星</t>
+  </si>
+  <si>
+    <t>寄灵人技能</t>
+  </si>
+  <si>
+    <t>守护灵培养</t>
+  </si>
+  <si>
+    <t>守护灵升级</t>
+  </si>
+  <si>
+    <t>守护灵升星</t>
+  </si>
+  <si>
+    <t>守护灵技能</t>
+  </si>
+  <si>
+    <t>守护灵专属武器</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>扭蛋</t>
+  </si>
+  <si>
+    <t>寄灵人抽奖</t>
+  </si>
+  <si>
+    <t>守护灵抽奖</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_084</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1302014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限:%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x]</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -924,26 +1076,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="2" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -951,31 +1103,43 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -983,31 +1147,43 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1015,575 +1191,755 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>10101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>101</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3">
+      <c r="J5" s="3">
         <v>20103</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>101</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="J6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>10201</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>102</v>
       </c>
-      <c r="D7" s="3">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3">
+      <c r="J7" s="3">
         <v>15</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>10202</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>102</v>
       </c>
-      <c r="D8" s="3">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10203</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>102</v>
       </c>
-      <c r="D9" s="3">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10204</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>102</v>
       </c>
-      <c r="D10" s="3">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>7</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>103</v>
       </c>
-      <c r="D11" s="3">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3">
+      <c r="J11" s="3">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>104</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3">
+      <c r="J12" s="3">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>201</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
         <v>10</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20101</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>201</v>
       </c>
-      <c r="D14" s="3">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20102</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>201</v>
       </c>
-      <c r="D15" s="3">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3">
+      <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20103</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>201</v>
       </c>
-      <c r="D16" s="3">
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3">
+      <c r="J16" s="3">
         <v>10</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>202</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3">
-        <v>202</v>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>202</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20201</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <v>202</v>
       </c>
-      <c r="D18" s="3">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20202</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>202</v>
       </c>
-      <c r="D19" s="3">
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="3">
+      <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20203</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>202</v>
       </c>
-      <c r="D20" s="3">
+      <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20204</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>202</v>
       </c>
-      <c r="D21" s="3">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>25</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>203</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>203</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>15</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>301</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>301</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>10</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>302</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>30201</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>302</v>
       </c>
-      <c r="D25" s="3">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="3">
+      <c r="J25" s="3">
         <v>18</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>30202</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>302</v>
       </c>
-      <c r="D26" s="3">
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>401</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>sheet名</t>
   </si>
@@ -104,13 +104,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级</t>
-  </si>
-  <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>参数1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -154,10 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通关指定剧情关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花古楼-风</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,26 +160,6 @@
   </si>
   <si>
     <t>芦花古楼-月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风门通关数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花门通关数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪门通关数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录天数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录天数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -452,6 +421,15 @@
       <t>x]</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+  </si>
+  <si>
+    <t>主线-id</t>
+  </si>
+  <si>
+    <t>芦花古楼-cha</t>
   </si>
 </sst>
 </file>
@@ -1006,20 +984,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1028,14 +1006,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1078,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,16 +1081,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
@@ -1121,22 +1099,22 @@
         <v>10</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1147,40 +1125,40 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -1191,16 +1169,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -1212,19 +1190,19 @@
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1235,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1247,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -1265,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1277,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="J5" s="3">
-        <v>20103</v>
+        <v>10115</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1292,10 +1270,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1305,7 +1283,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J6" s="3">
         <v>15</v>
@@ -1320,10 +1298,10 @@
         <v>10201</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1335,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="J7" s="3">
         <v>15</v>
@@ -1350,10 +1328,10 @@
         <v>10202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1365,29 +1343,31 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10203</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1399,29 +1379,31 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J9" s="3">
         <v>2</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="M9" s="3">
-        <v>7</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10204</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1433,29 +1415,31 @@
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="J10" s="3">
         <v>3</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M10" s="3">
-        <v>7</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1467,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J11" s="3">
         <v>20</v>
@@ -1482,10 +1466,10 @@
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1495,7 +1479,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J12" s="3">
         <v>25</v>
@@ -1510,10 +1494,10 @@
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1523,7 +1507,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J13" s="3">
         <v>10</v>
@@ -1538,10 +1522,10 @@
         <v>20101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1553,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1568,10 +1552,10 @@
         <v>20102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1583,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
@@ -1598,10 +1582,10 @@
         <v>20103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1613,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J16" s="3">
         <v>10</v>
@@ -1628,10 +1612,10 @@
         <v>202</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1652,10 +1636,10 @@
         <v>20201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1667,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1682,10 +1666,10 @@
         <v>20202</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1697,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
@@ -1712,10 +1696,10 @@
         <v>20203</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1727,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
@@ -1742,10 +1726,10 @@
         <v>20204</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1757,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J21" s="3">
         <v>25</v>
@@ -1772,10 +1756,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1785,7 +1769,7 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J22" s="3">
         <v>15</v>
@@ -1800,10 +1784,10 @@
         <v>301</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1813,7 +1797,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J23" s="3">
         <v>10</v>
@@ -1828,10 +1812,10 @@
         <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1841,7 +1825,7 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J24" s="3">
         <v>3</v>
@@ -1856,10 +1840,10 @@
         <v>30201</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1871,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J25" s="3">
         <v>18</v>
@@ -1886,10 +1870,10 @@
         <v>30202</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1901,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J26" s="3">
         <v>3</v>
@@ -1916,22 +1900,22 @@
         <v>401</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -426,10 +426,12 @@
     <t>玩家等级-lv</t>
   </si>
   <si>
-    <t>主线-id</t>
-  </si>
-  <si>
-    <t>芦花古楼-cha</t>
+    <t>关卡-id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1057,7 +1059,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1254,13 +1256,15 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="3">
-        <v>10115</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10109</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1349,14 +1353,14 @@
         <v>1</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1385,14 +1389,14 @@
         <v>2</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="3">
         <v>10</v>
       </c>
       <c r="N9" s="3">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1421,14 +1425,14 @@
         <v>3</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="M10" s="3">
         <v>10</v>
       </c>
       <c r="N10" s="3">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -19,8 +19,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.消失
+2.置灰点击Tip
+3.点击Tip</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
   <si>
     <t>sheet名</t>
   </si>
@@ -163,14 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>个人BOSS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>寄灵人升星</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,14 +225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人培养</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵培养</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花古楼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -259,10 +281,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -315,25 +333,13 @@
     <t>芦花古楼-月</t>
   </si>
   <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
     <t>竞技场</t>
   </si>
   <si>
-    <t>寄灵人培养</t>
-  </si>
-  <si>
-    <t>寄灵人升级</t>
-  </si>
-  <si>
     <t>寄灵人升星</t>
   </si>
   <si>
     <t>寄灵人技能</t>
-  </si>
-  <si>
-    <t>守护灵培养</t>
   </si>
   <si>
     <t>守护灵升级</t>
@@ -433,12 +439,244 @@
     <t>关卡-cha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁类型
+1.消失
+2.置灰点击Tip
+3.点击Tip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集训营</t>
+  </si>
+  <si>
+    <t>集训营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>守护灵-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第一章第9关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到30级并通过风的第7关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到45级并通过花的第10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到50级并通过花的第10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到32级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到25级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-cnt</t>
+  </si>
+  <si>
+    <t>玩家等级达到10级并拥有5个不同守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到10级，并兑换5次技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到32级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +758,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -986,20 +1239,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1008,14 +1261,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1055,27 +1308,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="22.625" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="21.75" customWidth="1"/>
-    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="2" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="15" max="15" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1083,43 +1338,46 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1127,43 +1385,46 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1171,43 +1432,46 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>10101</v>
       </c>
@@ -1215,29 +1479,34 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
         <v>101</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10102</v>
       </c>
@@ -1245,59 +1514,69 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>101</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>10109</v>
       </c>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>101</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="3">
         <v>15</v>
       </c>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>10201</v>
       </c>
@@ -1305,29 +1584,34 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
         <v>102</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="J7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="3">
         <v>15</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>10202</v>
       </c>
@@ -1335,35 +1619,40 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>102</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="3">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="3">
         <v>7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10203</v>
       </c>
@@ -1371,35 +1660,40 @@
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
         <v>102</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="3">
+        <v>45</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="3">
         <v>10</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10204</v>
       </c>
@@ -1407,530 +1701,701 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>102</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="3">
         <v>10</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>103</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>103</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="3">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="3">
+        <v>32</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>104</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="3">
         <v>25</v>
       </c>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>201</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G13" s="3">
-        <v>201</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="3">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>105</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="3">
+        <v>12</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>20101</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>201</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
         <v>201</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>201</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>201</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="J16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="3">
         <v>10</v>
       </c>
-      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>202</v>
+        <v>20104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="G17" s="3">
-        <v>202</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>201</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="3">
+        <v>40</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>20201</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>202</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
         <v>202</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>20202</v>
+        <v>20201</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>202</v>
       </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>20203</v>
+        <v>20202</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
         <v>202</v>
       </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20204</v>
+        <v>20203</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <v>202</v>
       </c>
-      <c r="H21" s="3">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="3">
-        <v>25</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>203</v>
+        <v>20204</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G22" s="3">
-        <v>203</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="3">
-        <v>15</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>202</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="3">
+        <v>35</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G23" s="3">
-        <v>301</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>203</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G24" s="3">
-        <v>302</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="3">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="H24" s="3">
+        <v>301</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>30201</v>
+        <v>302</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
         <v>302</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="3">
-        <v>18</v>
-      </c>
-      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>30202</v>
+        <v>30201</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
         <v>302</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>30202</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>401</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="H27" s="3">
+        <v>302</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>303</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>303</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="3">
+        <v>32</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>401</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>sheet名</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>普通关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>困难关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -310,9 +306,6 @@
   <si>
     <t>string:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通关卡</t>
   </si>
   <si>
     <t>困难关卡</t>
@@ -461,10 +454,6 @@
     <t>恶灵入侵</t>
   </si>
   <si>
-    <t>恶灵入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>寄灵人养成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -478,10 +467,6 @@
   </si>
   <si>
     <t>守护灵养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -669,6 +654,29 @@
   </si>
   <si>
     <t>玩家等级达到32级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1239,20 +1247,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1261,14 +1269,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1312,7 +1320,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1338,19 +1346,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -1359,22 +1367,22 @@
         <v>10</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1385,43 +1393,43 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
       <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,19 +1440,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1456,35 +1464,35 @@
         <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>10101</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -1496,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1511,15 +1519,15 @@
         <v>10102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1531,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1548,15 +1556,15 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -1566,7 +1574,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6" s="3">
         <v>15</v>
@@ -1581,15 +1589,15 @@
         <v>10201</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1601,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="3">
         <v>15</v>
@@ -1616,15 +1624,15 @@
         <v>10202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -1635,15 +1643,15 @@
       <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>95</v>
+      <c r="J8" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="K8" s="3">
         <v>30</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -1657,15 +1665,15 @@
         <v>10203</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1677,14 +1685,14 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" s="3">
         <v>45</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" s="3">
         <v>10</v>
@@ -1698,15 +1706,15 @@
         <v>10204</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1718,14 +1726,14 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="3">
         <v>50</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N10" s="3">
         <v>10</v>
@@ -1739,15 +1747,15 @@
         <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1759,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K11" s="3">
         <v>32</v>
@@ -1774,15 +1782,15 @@
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1792,7 +1800,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K12" s="3">
         <v>25</v>
@@ -1807,15 +1815,15 @@
         <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -1825,7 +1833,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="3">
         <v>12</v>
@@ -1840,15 +1848,15 @@
         <v>201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1858,7 +1866,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -1873,15 +1881,15 @@
         <v>20102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1893,14 +1901,14 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="3">
         <v>10</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N15" s="3">
         <v>5</v>
@@ -1912,15 +1920,15 @@
         <v>20103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -1932,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="3">
         <v>10</v>
@@ -1946,16 +1954,16 @@
       <c r="A17" s="3">
         <v>20104</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>73</v>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1967,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17" s="3">
         <v>40</v>
@@ -1982,15 +1990,15 @@
         <v>202</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -2000,7 +2008,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -2015,15 +2023,15 @@
         <v>20201</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2035,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K19" s="3">
         <v>5</v>
@@ -2050,15 +2058,15 @@
         <v>20202</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -2070,14 +2078,14 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="3">
         <v>10</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N20" s="3">
         <v>5</v>
@@ -2089,15 +2097,15 @@
         <v>20203</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -2109,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2124,15 +2132,15 @@
         <v>20204</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -2144,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" s="3">
         <v>35</v>
@@ -2159,15 +2167,15 @@
         <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -2177,7 +2185,7 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K23" s="3">
         <v>15</v>
@@ -2192,15 +2200,15 @@
         <v>301</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -2210,7 +2218,7 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24" s="3">
         <v>10</v>
@@ -2225,15 +2233,15 @@
         <v>302</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
@@ -2243,7 +2251,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2258,15 +2266,15 @@
         <v>30201</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -2278,14 +2286,14 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K26" s="3">
         <v>10</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N26" s="3">
         <v>5</v>
@@ -2297,15 +2305,15 @@
         <v>30202</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
@@ -2317,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -2332,15 +2340,15 @@
         <v>303</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -2350,7 +2358,7 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K28" s="3">
         <v>32</v>
@@ -2365,25 +2373,25 @@
         <v>401</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -10,7 +10,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="功能解锁" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
   <si>
     <t>sheet名</t>
   </si>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>芦花古楼-风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花古楼-花</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,10 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵升星</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -221,145 +213,128 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端管理各系统开放的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级解锁</t>
+  </si>
+  <si>
+    <t>等级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgIcon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难关卡</t>
+  </si>
+  <si>
     <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-花</t>
+  </si>
+  <si>
+    <t>芦花古楼-雪</t>
+  </si>
+  <si>
+    <t>芦花古楼-月</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>寄灵人升星</t>
+  </si>
+  <si>
+    <t>寄灵人技能</t>
+  </si>
+  <si>
+    <t>守护灵升星</t>
+  </si>
+  <si>
+    <t>守护灵技能</t>
+  </si>
+  <si>
+    <t>守护灵专属武器</t>
   </si>
   <si>
     <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扭蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>守护灵抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端管理各系统开放的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级解锁</t>
-  </si>
-  <si>
-    <t>等级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BgIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难关卡</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>芦花古楼-风</t>
-  </si>
-  <si>
-    <t>芦花古楼-花</t>
-  </si>
-  <si>
-    <t>芦花古楼-雪</t>
-  </si>
-  <si>
-    <t>芦花古楼-月</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>寄灵人升星</t>
-  </si>
-  <si>
-    <t>寄灵人技能</t>
-  </si>
-  <si>
-    <t>守护灵升级</t>
-  </si>
-  <si>
-    <t>守护灵升星</t>
-  </si>
-  <si>
-    <t>守护灵技能</t>
-  </si>
-  <si>
-    <t>守护灵专属武器</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>扭蛋</t>
-  </si>
-  <si>
-    <t>寄灵人抽奖</t>
-  </si>
-  <si>
-    <t>守护灵抽奖</t>
   </si>
   <si>
     <t>标题</t>
@@ -371,10 +346,6 @@
   </si>
   <si>
     <t>前景图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -447,10 +418,6 @@
     <t>集训营</t>
   </si>
   <si>
-    <t>集训营</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>恶灵入侵</t>
   </si>
   <si>
@@ -467,22 +434,6 @@
   </si>
   <si>
     <t>守护灵养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>守护灵-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cnt</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -514,10 +465,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到45级并通过花的第10关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级达到50级并通过花的第10关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -577,6 +524,77 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到10级，并兑换5次技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家等级达到3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到32级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>玩家等级达到4</t>
     </r>
@@ -593,90 +611,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到1级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>玩家等级达到5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到10级，并兑换5次技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>玩家等级达到3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5级</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能获取-buyTimes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到1级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到32级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>冒险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级-lv</t>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到45级并通过花的第10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集训营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技背包</t>
+  </si>
+  <si>
+    <t>武灵技背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到5级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1247,20 +1213,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1269,14 +1235,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1317,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1346,19 +1312,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -1393,34 +1359,34 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -1440,19 +1406,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1484,18 +1450,18 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>101</v>
@@ -1504,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1522,12 +1488,12 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1539,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1555,16 +1521,16 @@
       <c r="A6" s="3">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -1574,7 +1540,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K6" s="3">
         <v>15</v>
@@ -1586,18 +1552,18 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1606,33 +1572,39 @@
         <v>102</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="K7" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3">
+        <v>401</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>10202</v>
+        <v>10203</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -1641,39 +1613,39 @@
         <v>102</v>
       </c>
       <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="K8" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N8" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O8" s="3">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>10203</v>
+        <v>10204</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1682,95 +1654,87 @@
         <v>102</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K9" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N9" s="3">
         <v>10</v>
       </c>
       <c r="O9" s="3">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>10204</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>103</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K10" s="3">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10</v>
-      </c>
-      <c r="O10" s="3">
-        <v>403</v>
-      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>103</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>103</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K11" s="3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1779,31 +1743,31 @@
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>105</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K12" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1812,31 +1776,31 @@
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K13" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1845,35 +1809,41 @@
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>201</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>20103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>201</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -1884,12 +1854,12 @@
         <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1898,52 +1868,48 @@
         <v>201</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K15" s="3">
         <v>10</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5</v>
-      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>20103</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>20104</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>201</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K16" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1952,86 +1918,90 @@
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>20104</v>
+        <v>202</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>201</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K17" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>202</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>104</v>
+        <v>20203</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>202</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5</v>
+      </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>20201</v>
+        <v>20202</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2040,87 +2010,81 @@
         <v>202</v>
       </c>
       <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="3">
         <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>20202</v>
+        <v>20204</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <v>202</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K20" s="3">
-        <v>10</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20203</v>
+        <v>203</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>202</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2129,33 +2093,31 @@
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>20204</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>204</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>202</v>
-      </c>
-      <c r="I22" s="3">
+        <v>204</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="3">
         <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="3">
-        <v>35</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2164,31 +2126,31 @@
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>203</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K23" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2200,15 +2162,15 @@
         <v>301</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -2218,7 +2180,7 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K24" s="3">
         <v>10</v>
@@ -2233,15 +2195,15 @@
         <v>302</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
@@ -2251,7 +2213,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2263,18 +2225,18 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>30201</v>
+        <v>30202</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -2283,127 +2245,89 @@
         <v>302</v>
       </c>
       <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10</v>
-      </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="3">
-        <v>5</v>
-      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>30202</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>303</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>302</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>303</v>
+        <v>80</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="3">
-        <v>32</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>401</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="4">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>sheet名</t>
   </si>
@@ -639,6 +639,14 @@
   </si>
   <si>
     <t>地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1283,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1776,31 +1784,31 @@
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1809,57 +1817,51 @@
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>20103</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>201</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>201</v>
       </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K14" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="3">
-        <v>5</v>
-      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>20102</v>
+        <v>20103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1868,7 +1870,7 @@
         <v>201</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>85</v>
@@ -1877,39 +1879,43 @@
         <v>10</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5</v>
+      </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>20104</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>20102</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
         <v>201</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1918,90 +1924,86 @@
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>202</v>
+        <v>20104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>202</v>
-      </c>
-      <c r="I17" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>20203</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>202</v>
       </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K18" s="3">
-        <v>10</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>20202</v>
+        <v>20203</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2010,48 +2012,52 @@
         <v>202</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="3">
+        <v>5</v>
+      </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>20204</v>
+        <v>20202</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
         <v>202</v>
       </c>
       <c r="I20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K20" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2060,31 +2066,33 @@
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>203</v>
+        <v>20204</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>203</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
       <c r="J21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K21" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2093,31 +2101,31 @@
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>204</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>203</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K22" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2126,31 +2134,31 @@
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2159,31 +2167,31 @@
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>301</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>205</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2192,31 +2200,31 @@
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2225,28 +2233,26 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>30202</v>
+        <v>302</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
         <v>302</v>
       </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
         <v>85</v>
       </c>
@@ -2260,69 +2266,104 @@
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>303</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>30202</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3">
-        <v>303</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
       <c r="J27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K27" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>303</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="3">
+        <v>32</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>401</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89133CCF-745C-43F2-BDA7-E6E35AA307D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="功能解锁" sheetId="26" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$C$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="162">
   <si>
     <t>sheet名</t>
   </si>
@@ -205,10 +216,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵专属武器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -222,10 +229,6 @@
   </si>
   <si>
     <t>扭蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽奖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -433,10 +436,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级达到1级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -445,22 +444,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>玩家等级达到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5级</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级达到30级并通过风的第7关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -469,42 +452,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到32级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到25级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>玩家等级达到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2级</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级达到1级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级达到1级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-cnt</t>
-  </si>
-  <si>
-    <t>玩家等级达到10级并拥有5个不同守护灵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -524,30 +476,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到1级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到10级，并兑换5次技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>玩家等级达到3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5级</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_id:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -556,19 +484,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>技能获取-buyTimes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>每日任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到1级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到32级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -634,30 +550,172 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到4级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地狱道任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>挂机派遣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣</t>
+  </si>
+  <si>
+    <t>寄灵人养成</t>
+  </si>
+  <si>
+    <t>寄灵人天赋</t>
+  </si>
+  <si>
+    <t>守护灵养成</t>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+  </si>
+  <si>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>玩家等级达到1级</t>
+  </si>
+  <si>
+    <t>通过第一章第9关</t>
+  </si>
+  <si>
+    <t>玩家等级达到15级</t>
+  </si>
+  <si>
+    <t>玩家等级达到30级并通过风的第7关</t>
+  </si>
+  <si>
+    <t>玩家等级达到45级并通过花的第10关</t>
+  </si>
+  <si>
+    <t>玩家等级达到50级并通过花的第10关</t>
+  </si>
+  <si>
+    <t>玩家等级达到32级</t>
+  </si>
+  <si>
+    <t>玩家等级达到25级</t>
+  </si>
+  <si>
+    <t>玩家等级达到12级</t>
+  </si>
+  <si>
     <t>玩家等级达到5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机派遣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到5级</t>
+  </si>
+  <si>
+    <t>玩家等级达到10级并拥有5个不同守护灵</t>
+  </si>
+  <si>
+    <t>玩家等级达到10级</t>
+  </si>
+  <si>
+    <t>玩家等级达到40级</t>
+  </si>
+  <si>
+    <t>玩家等级达到10级，并兑换5次技能</t>
+  </si>
+  <si>
+    <t>玩家等级达到35级</t>
+  </si>
+  <si>
+    <t>玩家等级达到2级</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第二章第9关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第一章第4关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第二章第6关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第3关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第6关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第9关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章第3关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第五章第3关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵养成按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第二章第2关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵技能升级按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -830,6 +888,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -867,7 +938,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -881,24 +952,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1221,20 +1296,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1243,14 +1318,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1290,29 +1365,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
-    <col min="15" max="15" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="19.125" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1320,1055 +1396,1554 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>119</v>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>101</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>10102</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H5" s="3">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>401</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="L5" s="3">
-        <v>10109</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10503</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>101</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="3">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="I6" s="3">
+        <v>401</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10403</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>10202</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H7" s="3">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="3">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="3">
+        <v>401</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10306</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="O7" s="3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>401</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>10203</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>102</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="3">
-        <v>10</v>
-      </c>
-      <c r="O8" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10309</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>10204</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="H9" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="3">
-        <v>50</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10</v>
-      </c>
-      <c r="O9" s="3">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10209</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H10" s="3">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="3">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="3">
-        <v>104</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="3">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>202</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10202</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>105</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>203</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H12" s="3">
-        <v>105</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>401</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10503</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="H13" s="3">
-        <v>106</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>204</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10104</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="H14" s="3">
-        <v>201</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>205</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10206</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>20103</v>
+        <v>301</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H15" s="3">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="3">
+        <v>301</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="3">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5</v>
-      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>20102</v>
+        <v>302</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="3">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="3">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>20104</v>
+        <v>303</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="H17" s="3">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="3">
-        <v>40</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10209</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="H18" s="3">
-        <v>202</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>401</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>10209</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>20203</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H19" s="3">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="3">
-        <v>5</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10303</v>
+      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>20202</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2</v>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H20" s="3">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10309</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20204</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>202</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="3">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>203</v>
+        <v>10102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H22" s="3">
-        <v>203</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="3">
-        <v>15</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>101</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10209</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>204</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>10202</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H23" s="3">
-        <v>204</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>102</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="3">
+        <v>30</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="3">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>7</v>
+      </c>
+      <c r="P23" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>205</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>10203</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H24" s="3">
-        <v>205</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>102</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="3">
+        <v>45</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="3">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>301</v>
+        <v>10204</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H25" s="3">
-        <v>301</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>102</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="3">
+        <v>50</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
         <v>10</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>302</v>
+        <v>20102</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>201</v>
+      </c>
+      <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
-        <v>302</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>30202</v>
+        <v>20103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
-        <v>302</v>
-      </c>
       <c r="I27" s="3">
+        <v>201</v>
+      </c>
+      <c r="J27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="3">
+        <v>10</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>303</v>
+        <v>20104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="H28" s="3">
-        <v>303</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="3">
-        <v>32</v>
-      </c>
-      <c r="L28" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>201</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="3">
+        <v>40</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>401</v>
+        <v>20201</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="4">
+        <v>157</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="3">
+        <v>202</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>10202</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>20202</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>202</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>20203</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>202</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="3">
+        <v>10</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>20204</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>401</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10403</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P34">
+    <sortCondition ref="A4"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C3" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C28">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B60A97-214B-4EA9-B23D-E79996D8FB4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,19 +18,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$C$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">功能解锁!$K$1:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">功能解锁!$K$1:$K$46</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t>sheet名</t>
   </si>
@@ -220,9 +227,6 @@
     <t>冒险</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603014</t>
-  </si>
-  <si>
     <t>玩家等级达到1级</t>
   </si>
   <si>
@@ -232,19 +236,28 @@
     <t>芦花古楼</t>
   </si>
   <si>
-    <t>icon_1304030</t>
+    <t>ui_t_c2_527</t>
+  </si>
+  <si>
+    <t>玩家等级达到25级</t>
   </si>
   <si>
     <t>恶灵入侵</t>
   </si>
   <si>
-    <t>icon_1801005</t>
+    <t>ui_t_c2_523</t>
+  </si>
+  <si>
+    <t>玩家等级达到30级</t>
   </si>
   <si>
     <t>竞技场</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1401007</t>
+    <t>ui_t_c2_526</t>
+  </si>
+  <si>
+    <t>通过第二章第9关</t>
   </si>
   <si>
     <t>关卡-id</t>
@@ -253,91 +266,91 @@
     <t>集训营</t>
   </si>
   <si>
-    <t>ui_dtex_function_2</t>
+    <t>ui_t_c2_524</t>
+  </si>
+  <si>
+    <t>玩家等级达到17级</t>
+  </si>
+  <si>
+    <t>挂机派遣</t>
+  </si>
+  <si>
+    <t>通过第三章第1关</t>
+  </si>
+  <si>
+    <t>日常本</t>
+  </si>
+  <si>
+    <t>试炼宝库</t>
+  </si>
+  <si>
+    <t>ui_t_c2_530</t>
+  </si>
+  <si>
+    <t>通过第二章第5关</t>
+  </si>
+  <si>
+    <t>寄灵人养成</t>
+  </si>
+  <si>
+    <t>守护灵养成按钮</t>
+  </si>
+  <si>
+    <t>守护灵养成</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>ui_t_c2_528</t>
+  </si>
+  <si>
+    <t>武灵技背包</t>
+  </si>
+  <si>
+    <t>通过第一章第4关</t>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+  </si>
+  <si>
+    <t>通过第二章第7关</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>扭蛋</t>
+  </si>
+  <si>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>主线任务</t>
+  </si>
+  <si>
+    <t>ui_t_c2_531</t>
+  </si>
+  <si>
+    <t>玩家等级达到13级</t>
+  </si>
+  <si>
+    <t>通灵</t>
+  </si>
+  <si>
+    <t>通过第三章第3关</t>
+  </si>
+  <si>
+    <t>挑战</t>
   </si>
   <si>
     <t>通过第三章第9关</t>
   </si>
   <si>
-    <t>挂机派遣</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1605002</t>
-  </si>
-  <si>
-    <t>寄灵人养成</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_072</t>
-  </si>
-  <si>
-    <t>守护灵养成按钮</t>
-  </si>
-  <si>
-    <t>守护灵养成</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1603020</t>
-  </si>
-  <si>
-    <t>武灵技背包</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1603022</t>
-  </si>
-  <si>
-    <t>通过第一章第4关</t>
-  </si>
-  <si>
-    <t>地狱道任务</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606024</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401011</t>
-  </si>
-  <si>
-    <t>扭蛋</t>
-  </si>
-  <si>
-    <t>ui_dtex_function_1</t>
-  </si>
-  <si>
-    <t>每日任务</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401014</t>
-  </si>
-  <si>
-    <t>通过第三章第1关</t>
-  </si>
-  <si>
-    <t>主线任务</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1609003</t>
-  </si>
-  <si>
-    <t>通灵</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401003</t>
-  </si>
-  <si>
-    <t>通过第三章第3关</t>
-  </si>
-  <si>
-    <t>挑战</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_003</t>
+    <t>领取第一章关卡进度奖励</t>
+  </si>
+  <si>
+    <t>领取关卡进度奖励</t>
   </si>
   <si>
     <t>战斗加速</t>
@@ -353,6 +366,51 @@
   </si>
   <si>
     <t>战斗动画开关</t>
+  </si>
+  <si>
+    <t>实时竞技</t>
+  </si>
+  <si>
+    <t>ui_t_c2_529</t>
+  </si>
+  <si>
+    <t>玩家等级达到22级</t>
+  </si>
+  <si>
+    <t>嘉年华</t>
+  </si>
+  <si>
+    <t>ui_t_c2_516</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>查看第一章关卡进度奖励</t>
+  </si>
+  <si>
+    <t>查看关卡进度奖励</t>
+  </si>
+  <si>
+    <t>通关1-2开启</t>
+  </si>
+  <si>
+    <t>强制引导1-2</t>
+  </si>
+  <si>
+    <t>通关1-1开启</t>
+  </si>
+  <si>
+    <t>领取第三章关卡进度奖励</t>
+  </si>
+  <si>
+    <t>通关3-12开启</t>
+  </si>
+  <si>
+    <t>引导上阵曹焱兵</t>
+  </si>
+  <si>
+    <t>熔炼打造</t>
   </si>
   <si>
     <t>等级解锁</t>
@@ -389,21 +447,21 @@
     </r>
   </si>
   <si>
+    <t>问卷调查一</t>
+  </si>
+  <si>
+    <t>问卷调查</t>
+  </si>
+  <si>
+    <t>通过第一章第9关</t>
+  </si>
+  <si>
     <t>困难关卡</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1606030</t>
-  </si>
-  <si>
-    <t>通过第一章第9关</t>
-  </si>
-  <si>
     <t>芦花古楼-花</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1608011</t>
-  </si>
-  <si>
     <t>通过风的第7关</t>
   </si>
   <si>
@@ -413,37 +471,25 @@
     <t>芦花古楼-雪</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603010</t>
-  </si>
-  <si>
     <t>通过花的第10关</t>
   </si>
   <si>
     <t>芦花古楼-月</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1609002</t>
-  </si>
-  <si>
     <t>寄灵人技能</t>
   </si>
   <si>
-    <t>icon_1301002</t>
-  </si>
-  <si>
     <t>通关第二章第2关</t>
   </si>
   <si>
     <t>寄灵人升星</t>
   </si>
   <si>
-    <t>ui_dtex_Item_004</t>
-  </si>
-  <si>
     <t>寄灵人天赋</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603023</t>
+    <t>ui_t_c2_525</t>
   </si>
   <si>
     <r>
@@ -474,9 +520,6 @@
     <t>守护灵升级</t>
   </si>
   <si>
-    <t>ui_dtex_Quality_071</t>
-  </si>
-  <si>
     <t>通关第一章第3关</t>
   </si>
   <si>
@@ -486,21 +529,12 @@
     <t>守护灵技能</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1604001</t>
-  </si>
-  <si>
     <t>守护灵升星</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1401008</t>
-  </si>
-  <si>
     <t>守护灵专属武器</t>
   </si>
   <si>
-    <t>ui_dtex_Equip_1501001</t>
-  </si>
-  <si>
     <t>通过第四章第6关</t>
   </si>
   <si>
@@ -540,9 +574,6 @@
     <t>玩家等级达到15级</t>
   </si>
   <si>
-    <t>玩家等级达到25级</t>
-  </si>
-  <si>
     <t>玩家等级达到32级</t>
   </si>
   <si>
@@ -552,122 +583,36 @@
     <t>玩家等级达到40级</t>
   </si>
   <si>
-    <t>实时竞技</t>
+    <t>通过雪的第10关</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>嘉年华</t>
+    <t>玩家等级达到36级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>试炼宝库</t>
+    <t>玩家等级达到38级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>通过第三章第1关</t>
+    <t>寄灵人-国战属性</t>
+  </si>
+  <si>
+    <t>寄灵人-国战属性</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>通过第二章第5关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第二章第12关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看关卡进度奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取关卡进度奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-2开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取第一章关卡进度奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取第三章关卡进度奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看第一章关卡进度奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-12开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导上阵曹焱兵</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-1开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到17级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到20级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到25级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到27级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到13级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到22级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第二章第7关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制引导1-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-1开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第二章第9关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第三章第9关</t>
+    <t>守护灵-国战属性</t>
+  </si>
+  <si>
+    <t>守护灵-国战属性</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,14 +647,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -723,8 +660,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -732,9 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -776,13 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,13 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,13 +787,13 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
@@ -857,16 +802,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -877,6 +822,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -890,36 +838,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1191,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,20 +1181,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="b">
@@ -1258,14 +1203,14 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9"/>
@@ -1296,7 +1241,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1306,17 +1251,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="37.625" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
@@ -1351,7 +1297,7 @@
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1380,1675 +1326,1769 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>101</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H4" s="9">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>101</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>102</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="6">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>168</v>
+      <c r="G5" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="H5" s="9">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>101</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="6">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6">
-        <v>10503</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="7">
+        <v>36</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>103</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>167</v>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="9">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>101</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="6">
-        <v>20</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>104</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7">
         <v>7</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>175</v>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>401</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <v>10209</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>105</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>166</v>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>101</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7">
         <v>17</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>106</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>152</v>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>401</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>10301</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>107</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>153</v>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>401</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="J10" s="7"/>
+      <c r="K10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
         <v>10205</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>201</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>201</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>202</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>52</v>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>202</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>203</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>169</v>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>101</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="6">
-        <v>27</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7">
+        <v>38</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>204</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
+      <c r="B14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>204</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
         <v>10104</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>205</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>172</v>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>205</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="J15" s="7"/>
+      <c r="K15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
         <v>10207</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>301</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
+      <c r="B16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>202</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <v>3</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>302</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>52</v>
+      <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H17" s="9">
         <v>3</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>302</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>303</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="B18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>302</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>304</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>101</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="7">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>305</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>401</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>10301</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>304</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>101</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="6">
-        <v>13</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>305</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="J20" s="7"/>
+      <c r="K20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10303</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>306</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
         <v>401</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>10303</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>306</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="7">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>401</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>10309</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>10205</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>307</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="9">
         <v>3</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>401</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="J22" s="7"/>
+      <c r="K22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
         <v>10109</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>308</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7" t="s">
-        <v>92</v>
+      <c r="B23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H23" s="9">
         <v>3</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="7">
         <v>401</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="J23" s="7"/>
+      <c r="K23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
         <v>10201</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>309</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
-        <v>94</v>
+      <c r="B24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="H24" s="9">
         <v>3</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>401</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="J24" s="7"/>
+      <c r="K24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
         <v>10301</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>310</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
+      <c r="B25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H25" s="9">
         <v>3</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="7">
         <v>401</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="J25" s="7"/>
+      <c r="K25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
         <v>10201</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>311</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
+      <c r="B26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="H26" s="9">
         <v>3</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="7">
         <v>302</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7">
         <v>22</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>312</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
+      <c r="B27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H27" s="9">
         <v>3</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="7">
         <v>101</v>
       </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>313</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7" t="s">
-        <v>155</v>
+      <c r="B28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="7">
         <v>401</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28" s="6">
-        <v>10212</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
+        <v>10301</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>314</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
+      <c r="B29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="H29" s="9">
         <v>3</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="7">
         <v>401</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="6">
-        <v>1</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="J29" s="7"/>
+      <c r="K29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
         <v>10102</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>315</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="10">
         <v>43467</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H30" s="9">
         <v>3</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="7">
         <v>401</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="6">
-        <v>1</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="J30" s="7"/>
+      <c r="K30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
         <v>10101</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>316</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7" t="s">
-        <v>163</v>
+      <c r="B31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H31" s="9">
         <v>3</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="7">
         <v>401</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="6">
-        <v>1</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="J31" s="7"/>
+      <c r="K31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
         <v>10312</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>317</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="s">
-        <v>165</v>
+      <c r="B32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H32" s="9">
         <v>3</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="7">
         <v>401</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="6">
-        <v>1</v>
-      </c>
-      <c r="M32" s="6">
+      <c r="J32" s="7"/>
+      <c r="K32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
         <v>10201</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>318</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
         <v>401</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="J33" s="7"/>
+      <c r="K33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>10301</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" ht="33" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>401</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="9">
         <v>2</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="I34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>901</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>209</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>10109</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>10102</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="8">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
         <v>101</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>101</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="J36" s="7">
         <v>2</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="M34" s="6">
+      <c r="K36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
         <v>10309</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>10202</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="9">
-        <v>2</v>
-      </c>
-      <c r="I35" s="6">
-        <v>102</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L35" s="6">
-        <v>7</v>
-      </c>
-      <c r="M35" s="6">
-        <v>401</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>10203</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2</v>
-      </c>
-      <c r="I36" s="6">
-        <v>102</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="6">
-        <v>10</v>
-      </c>
-      <c r="M36" s="6">
-        <v>402</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>10204</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>110</v>
+      <c r="B37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="H37" s="9">
         <v>2</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="7">
         <v>102</v>
       </c>
-      <c r="J37" s="6">
-        <v>4</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L37" s="6">
-        <v>10</v>
-      </c>
-      <c r="M37" s="6">
-        <v>403</v>
-      </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="J37" s="7">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="7">
+        <v>7</v>
+      </c>
+      <c r="M37" s="7">
+        <v>401</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>20102</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>115</v>
+      <c r="A38" s="7">
+        <v>10203</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="H38" s="9">
         <v>2</v>
       </c>
-      <c r="I38" s="6">
-        <v>202</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="7">
+        <v>102</v>
+      </c>
+      <c r="J38" s="7">
         <v>3</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="6">
-        <v>1</v>
-      </c>
-      <c r="M38" s="6">
-        <v>10202</v>
-      </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="K38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="7">
+        <v>10</v>
+      </c>
+      <c r="M38" s="7">
+        <v>402</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>20103</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>52</v>
+      <c r="A39" s="7">
+        <v>10204</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="H39" s="9">
         <v>2</v>
       </c>
-      <c r="I39" s="6">
-        <v>202</v>
-      </c>
-      <c r="J39" s="6">
-        <v>3</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="6">
-        <v>1</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>20104</v>
+      <c r="I39" s="7">
+        <v>102</v>
+      </c>
+      <c r="J39" s="7">
+        <v>4</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="7">
+        <v>10</v>
+      </c>
+      <c r="M39" s="7">
+        <v>403</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>20102</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>120</v>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="H40" s="9">
         <v>2</v>
       </c>
-      <c r="I40" s="6">
-        <v>201</v>
-      </c>
-      <c r="J40" s="6">
-        <v>4</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40" s="6">
-        <v>40</v>
-      </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>20201</v>
+      <c r="I40" s="7">
+        <v>202</v>
+      </c>
+      <c r="J40" s="7">
+        <v>3</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7">
+        <v>10202</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>20103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H41" s="9">
         <v>2</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="7">
         <v>202</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="7">
         <v>3</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6">
-        <v>10103</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>20202</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>20104</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="H42" s="9">
         <v>2</v>
       </c>
-      <c r="I42" s="6">
-        <v>202</v>
-      </c>
-      <c r="J42" s="6">
-        <v>3</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="6">
-        <v>1</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>20203</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="I42" s="7">
+        <v>201</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="L42" s="7">
+        <v>40</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>20201</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="H43" s="9">
         <v>2</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="7">
         <v>202</v>
       </c>
-      <c r="J43" s="6">
-        <v>2</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="6">
-        <v>1</v>
-      </c>
-      <c r="M43" s="7"/>
+      <c r="J43" s="7">
+        <v>3</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>10103</v>
+      </c>
       <c r="N43" s="7"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-    </row>
-    <row r="44" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>20204</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="7">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>132</v>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>20202</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H44" s="9">
         <v>2</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="7">
+        <v>202</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="7">
+        <v>1</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>20203</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2</v>
+      </c>
+      <c r="I45" s="7">
+        <v>202</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>20204</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2</v>
+      </c>
+      <c r="I46" s="7">
         <v>401</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L44" s="6">
-        <v>1</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="J46" s="7"/>
+      <c r="K46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
         <v>10406</v>
       </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>30201</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
+        <v>201</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>30202</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9">
+        <v>202</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="7">
+        <v>1</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P35">
+  <sortState ref="A4:P36">
     <sortCondition ref="A4"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3059,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3080,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3096,10 +3136,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3107,10 +3147,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3118,10 +3158,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3129,10 +3169,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3140,10 +3180,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3151,10 +3191,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3162,10 +3202,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -3173,10 +3213,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3184,10 +3224,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -3195,10 +3235,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -3206,10 +3246,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -3217,10 +3257,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3228,10 +3268,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -3239,10 +3279,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -3250,10 +3290,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -3261,10 +3301,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3272,10 +3312,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -3283,10 +3323,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -3294,10 +3334,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -3305,10 +3345,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -3316,10 +3356,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -3330,7 +3370,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -3338,10 +3378,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>35</v>
@@ -3349,18 +3389,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C28" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C28">
+  <autoFilter ref="A3:C28">
+    <sortState ref="A3:C28">
       <sortCondition ref="C3"/>
     </sortState>
   </autoFilter>

--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView windowWidth="25140" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,17 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$C$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">功能解锁!$K$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">功能解锁!$K$1:$K$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,14 +25,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -54,7 +40,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -69,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="162">
   <si>
     <t>sheet名</t>
   </si>
@@ -239,7 +224,7 @@
     <t>ui_t_c2_527</t>
   </si>
   <si>
-    <t>玩家等级达到25级</t>
+    <t>玩家等级达到36级</t>
   </si>
   <si>
     <t>恶灵入侵</t>
@@ -266,7 +251,7 @@
     <t>集训营</t>
   </si>
   <si>
-    <t>ui_t_c2_524</t>
+    <t>ui_t_c2_168</t>
   </si>
   <si>
     <t>玩家等级达到17级</t>
@@ -305,6 +290,9 @@
     <t>ui_t_c2_528</t>
   </si>
   <si>
+    <t>玩家等级达到38级</t>
+  </si>
+  <si>
     <t>武灵技背包</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
   </si>
   <si>
     <t>挑战</t>
-  </si>
-  <si>
-    <t>通过第三章第9关</t>
   </si>
   <si>
     <t>领取第一章关卡进度奖励</t>
@@ -430,7 +415,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[</t>
@@ -440,7 +424,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>x]</t>
@@ -459,6 +442,9 @@
     <t>困难关卡</t>
   </si>
   <si>
+    <t>通过第三章第9关</t>
+  </si>
+  <si>
     <t>芦花古楼-花</t>
   </si>
   <si>
@@ -475,6 +461,9 @@
   </si>
   <si>
     <t>芦花古楼-月</t>
+  </si>
+  <si>
+    <t>通过雪的第10关</t>
   </si>
   <si>
     <t>寄灵人技能</t>
@@ -497,7 +486,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>玩家等级达到4</t>
@@ -507,13 +495,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0级</t>
     </r>
   </si>
   <si>
+    <t>寄灵人-国战属性</t>
+  </si>
+  <si>
     <t>守护灵升级按钮</t>
   </si>
   <si>
@@ -538,6 +528,9 @@
     <t>通过第四章第6关</t>
   </si>
   <si>
+    <t>守护灵-国战属性</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -574,6 +567,9 @@
     <t>玩家等级达到15级</t>
   </si>
   <si>
+    <t>玩家等级达到25级</t>
+  </si>
+  <si>
     <t>玩家等级达到32级</t>
   </si>
   <si>
@@ -581,39 +577,19 @@
   </si>
   <si>
     <t>玩家等级达到40级</t>
-  </si>
-  <si>
-    <t>通过雪的第10关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到36级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到38级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人-国战属性</t>
-  </si>
-  <si>
-    <t>寄灵人-国战属性</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-国战属性</t>
-  </si>
-  <si>
-    <t>守护灵-国战属性</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,14 +602,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -641,21 +615,177 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -664,49 +794,22 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,7 +824,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +956,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,12 +1016,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -776,6 +1065,104 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -785,95 +1172,283 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,19 +1706,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1154,7 +1729,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1777,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1795,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="54" customHeight="1" spans="1:8">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1230,7 +1805,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1240,25 +1815,26 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="5" width="17.375" customWidth="1"/>
@@ -1275,7 +1851,7 @@
     <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16.5" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" ht="75" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +2001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="7">
         <v>101</v>
       </c>
@@ -1461,7 +2037,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="7">
         <v>102</v>
       </c>
@@ -1479,7 +2055,7 @@
         <v>54</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="H5" s="9">
         <v>2</v>
@@ -1501,7 +2077,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="7">
         <v>103</v>
       </c>
@@ -1541,7 +2117,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="7">
         <v>104</v>
       </c>
@@ -1581,7 +2157,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:16">
       <c r="A8" s="7">
         <v>105</v>
       </c>
@@ -1621,7 +2197,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:16">
       <c r="A9" s="7">
         <v>106</v>
       </c>
@@ -1659,7 +2235,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="26.25" customHeight="1" spans="1:16">
       <c r="A10" s="7">
         <v>107</v>
       </c>
@@ -1697,7 +2273,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:16">
       <c r="A11" s="7">
         <v>201</v>
       </c>
@@ -1731,7 +2307,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:16">
       <c r="A12" s="7">
         <v>202</v>
       </c>
@@ -1767,7 +2343,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:16">
       <c r="A13" s="7">
         <v>203</v>
       </c>
@@ -1785,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -1807,15 +2383,15 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:16">
       <c r="A14" s="7">
         <v>204</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -1823,7 +2399,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -1845,15 +2421,15 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:16">
       <c r="A15" s="7">
         <v>205</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
@@ -1861,7 +2437,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -1883,15 +2459,15 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:16">
       <c r="A16" s="7">
         <v>301</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1919,15 +2495,15 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:16">
       <c r="A17" s="7">
         <v>302</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1953,15 +2529,15 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:16">
       <c r="A18" s="7">
         <v>303</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="8">
         <v>5</v>
@@ -1989,25 +2565,25 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:16">
       <c r="A19" s="7">
         <v>304</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
@@ -2029,15 +2605,15 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:16">
       <c r="A20" s="7">
         <v>305</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="8">
         <v>6</v>
@@ -2045,7 +2621,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="9">
         <v>1</v>
@@ -2067,15 +2643,15 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:16">
       <c r="A21" s="7">
         <v>306</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="8">
         <v>8</v>
@@ -2105,7 +2681,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:16">
       <c r="A22" s="7">
         <v>307</v>
       </c>
@@ -2139,7 +2715,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:16">
       <c r="A23" s="7">
         <v>308</v>
       </c>
@@ -2175,7 +2751,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:16">
       <c r="A24" s="7">
         <v>309</v>
       </c>
@@ -2211,7 +2787,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:16">
       <c r="A25" s="7">
         <v>310</v>
       </c>
@@ -2247,7 +2823,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26" s="7">
         <v>311</v>
       </c>
@@ -2283,7 +2859,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:16">
       <c r="A27" s="7">
         <v>312</v>
       </c>
@@ -2321,7 +2897,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:16">
       <c r="A28" s="7">
         <v>313</v>
       </c>
@@ -2357,7 +2933,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:16">
       <c r="A29" s="7">
         <v>314</v>
       </c>
@@ -2393,7 +2969,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:16">
       <c r="A30" s="7">
         <v>315</v>
       </c>
@@ -2429,7 +3005,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:16">
       <c r="A31" s="7">
         <v>316</v>
       </c>
@@ -2465,7 +3041,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:16">
       <c r="A32" s="7">
         <v>317</v>
       </c>
@@ -2501,7 +3077,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:16">
       <c r="A33" s="7">
         <v>318</v>
       </c>
@@ -2537,7 +3113,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="33" x14ac:dyDescent="0.2">
+    <row r="34" ht="33" spans="1:16">
       <c r="A34" s="7">
         <v>401</v>
       </c>
@@ -2571,7 +3147,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:16">
       <c r="A35" s="7">
         <v>901</v>
       </c>
@@ -2607,7 +3183,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:16">
       <c r="A36" s="7">
         <v>10102</v>
       </c>
@@ -2623,7 +3199,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -2647,21 +3223,21 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:16">
       <c r="A37" s="7">
         <v>10202</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" s="9">
         <v>2</v>
@@ -2673,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L37" s="7">
         <v>7</v>
@@ -2685,21 +3261,21 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:16">
       <c r="A38" s="7">
         <v>10203</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H38" s="9">
         <v>2</v>
@@ -2711,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L38" s="7">
         <v>10</v>
@@ -2723,21 +3299,21 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:16">
       <c r="A39" s="7">
         <v>10204</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="H39" s="9">
         <v>2</v>
@@ -2749,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L39" s="7">
         <v>10</v>
@@ -2761,21 +3337,21 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:16">
       <c r="A40" s="7">
         <v>20102</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H40" s="9">
         <v>2</v>
@@ -2799,15 +3375,15 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:16">
       <c r="A41" s="7">
         <v>20103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2835,23 +3411,23 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="21" customHeight="1" spans="1:16">
       <c r="A42" s="7">
         <v>20104</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H42" s="9">
         <v>2</v>
@@ -2873,61 +3449,55 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" ht="16.5" spans="1:16">
+      <c r="A43" s="9">
+        <v>20105</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9">
+        <v>201</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:16">
+      <c r="A44" s="7">
         <v>20201</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="9">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7">
-        <v>202</v>
-      </c>
-      <c r="J43" s="7">
-        <v>3</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L43" s="7">
-        <v>1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>10103</v>
-      </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>20202</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="8" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="H44" s="9">
         <v>2</v>
@@ -2938,26 +3508,28 @@
       <c r="J44" s="7">
         <v>3</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>52</v>
+      <c r="K44" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L44" s="7">
         <v>1</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="7">
+        <v>10103</v>
+      </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:16">
       <c r="A45" s="7">
-        <v>20203</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>139</v>
+        <v>20202</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2972,7 +3544,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>52</v>
@@ -2980,90 +3552,94 @@
       <c r="L45" s="7">
         <v>1</v>
       </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:16">
       <c r="A46" s="7">
-        <v>20204</v>
+        <v>20203</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="8">
-        <v>10</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="8" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="H46" s="9">
         <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>401</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8" t="s">
-        <v>62</v>
+        <v>202</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L46" s="7">
         <v>1</v>
       </c>
-      <c r="M46" s="7">
-        <v>10406</v>
-      </c>
-      <c r="N46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>30201</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+    <row r="47" ht="16.5" spans="1:16">
+      <c r="A47" s="7">
+        <v>20204</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="H47" s="9">
-        <v>1</v>
-      </c>
-      <c r="I47" s="9">
-        <v>201</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="7" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="I47" s="7">
+        <v>401</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M47" s="7">
+        <v>10406</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:16">
       <c r="A48" s="9">
-        <v>30202</v>
+        <v>20205</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -3091,28 +3667,29 @@
   <sortState ref="A4:P36">
     <sortCondition ref="A4"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3120,10 +3697,10 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3134,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -3145,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3156,9 +3733,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -3167,9 +3744,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -3178,9 +3755,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -3189,18 +3766,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -3211,188 +3788,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C27">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -3403,8 +3980,9 @@
     <sortState ref="A3:C28">
       <sortCondition ref="C3"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/unlock.功能解锁.xlsx
+++ b/Excel/镇魂街/unlock.功能解锁.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="218">
   <si>
     <t>sheet名</t>
   </si>
@@ -375,15 +370,12 @@
     <t>千机黑刹</t>
   </si>
   <si>
-    <t>ui_t_c2_757</t>
+    <t>ui_t_c2_809</t>
   </si>
   <si>
     <t>玩家等级达到40级</t>
   </si>
   <si>
-    <t>ui_t_c2_188</t>
-  </si>
-  <si>
     <t>寄灵人养成</t>
   </si>
   <si>
@@ -480,7 +472,7 @@
     <t>ui_t_c2_531</t>
   </si>
   <si>
-    <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/UIMainTask/BackBtn</t>
+    <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/UIMainTask/parent</t>
   </si>
   <si>
     <t>通过第1章第5关</t>
@@ -495,6 +487,9 @@
     <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/MainBtn/telepathizeBtn</t>
   </si>
   <si>
+    <t>关卡通过3-5</t>
+  </si>
+  <si>
     <t>挑战</t>
   </si>
   <si>
@@ -552,6 +547,9 @@
     <t>熔炼打造</t>
   </si>
   <si>
+    <t>ui_t_c2_653</t>
+  </si>
+  <si>
     <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/ResourceBarParent/CommonBtnGroup(Clone)/BottomBtnGroup/BottomBtnGroup/EquipForgeBtn</t>
   </si>
   <si>
@@ -564,6 +562,9 @@
     <t>传记副本</t>
   </si>
   <si>
+    <t>ui_t_c2_797</t>
+  </si>
+  <si>
     <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/MainBtn/fetterBtn</t>
   </si>
   <si>
@@ -678,6 +679,9 @@
     <t>寄灵人抽卡</t>
   </si>
   <si>
+    <t>ui_t_c2_550</t>
+  </si>
+  <si>
     <t>地狱道突破至黑绳</t>
   </si>
   <si>
@@ -715,33 +719,19 @@
   </si>
   <si>
     <t>玩家等级达到35级</t>
-  </si>
-  <si>
-    <t>ui_t_c2_653</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_c2_797</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_c2_550</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡通过3-5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,17 +753,78 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
@@ -784,9 +835,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -799,10 +902,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,14 +943,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,13 +959,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +1103,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14963225196081423"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149632251960814"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,8 +1155,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -891,6 +1192,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -901,105 +1250,343 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1257,19 +1844,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1280,7 +1867,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1915,7 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1933,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="54" customHeight="1" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1356,7 +1943,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1366,26 +1953,28 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -1405,7 +1994,7 @@
     <col min="22" max="26" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16.5" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +2074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +2154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" ht="75" spans="1:26">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -1645,7 +2234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" ht="33" spans="1:26">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1701,7 +2290,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="5" ht="33" spans="1:26">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -1761,11 +2350,11 @@
       <c r="Y5" s="8">
         <v>3</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="6" ht="33" spans="1:26">
       <c r="A6" s="8">
         <v>103</v>
       </c>
@@ -1825,11 +2414,11 @@
       <c r="Y6" s="8">
         <v>2</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="7" ht="33" spans="1:26">
       <c r="A7" s="8">
         <v>104</v>
       </c>
@@ -1885,9 +2474,9 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" ht="33" spans="1:26">
       <c r="A8" s="8">
         <v>105</v>
       </c>
@@ -1945,9 +2534,9 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" ht="33" spans="1:26">
       <c r="A9" s="8">
         <v>106</v>
       </c>
@@ -2003,9 +2592,9 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:26">
       <c r="A10" s="8">
         <v>107</v>
       </c>
@@ -2063,11 +2652,11 @@
       <c r="Y10" s="8">
         <v>1</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17.25" customHeight="1" spans="1:26">
       <c r="A11" s="8">
         <v>108</v>
       </c>
@@ -2104,14 +2693,14 @@
         <v>2</v>
       </c>
       <c r="N11" s="8">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="8">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -2125,20 +2714,20 @@
       <c r="Y11" s="8">
         <v>4</v>
       </c>
-      <c r="Z11" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:26">
       <c r="A12" s="8">
         <v>201</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9">
@@ -2175,18 +2764,18 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:26">
       <c r="A13" s="8">
         <v>202</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -2202,7 +2791,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="11">
         <v>1</v>
@@ -2227,18 +2816,18 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" ht="33" spans="1:26">
       <c r="A14" s="8">
         <v>203</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="8">
         <v>12</v>
@@ -2254,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="M14" s="11">
         <v>1</v>
@@ -2289,16 +2878,16 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="66" x14ac:dyDescent="0.2">
+    <row r="15" ht="66" spans="1:26">
       <c r="A15" s="8">
         <v>204</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -2314,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="M15" s="11">
         <v>1</v>
@@ -2347,16 +2936,16 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="49.5" spans="1:26">
       <c r="A16" s="8">
         <v>205</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="10">
         <v>3</v>
@@ -2372,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="M16" s="11">
         <v>1</v>
@@ -2405,16 +2994,16 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="17" ht="33" spans="1:26">
       <c r="A17" s="8">
         <v>301</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9">
@@ -2428,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="11">
         <v>1</v>
@@ -2461,16 +3050,16 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="66" x14ac:dyDescent="0.2">
+    <row r="18" ht="66" spans="1:26">
       <c r="A18" s="8">
         <v>302</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9">
@@ -2484,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="11">
         <v>1</v>
@@ -2517,16 +3106,16 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="33" spans="1:26">
       <c r="A19" s="8">
         <v>303</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="10">
         <v>5</v>
@@ -2542,13 +3131,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="11">
         <v>3</v>
@@ -2573,16 +3162,16 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="20" ht="33" spans="1:26">
       <c r="A20" s="8">
         <v>304</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="10">
         <v>4</v>
@@ -2598,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="11">
         <v>1</v>
@@ -2633,16 +3222,16 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="21" ht="33" spans="1:26">
       <c r="A21" s="8">
         <v>305</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="10">
         <v>6</v>
@@ -2658,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="M21" s="11">
         <v>1</v>
@@ -2693,7 +3282,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:26">
       <c r="A22" s="8">
         <v>306</v>
       </c>
@@ -2745,7 +3334,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:26">
       <c r="A23" s="8">
         <v>308</v>
       </c>
@@ -2795,7 +3384,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:26">
       <c r="A24" s="8">
         <v>309</v>
       </c>
@@ -2845,7 +3434,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:26">
       <c r="A25" s="8">
         <v>310</v>
       </c>
@@ -2895,7 +3484,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="26" ht="33" spans="1:26">
       <c r="A26" s="8">
         <v>311</v>
       </c>
@@ -2953,7 +3542,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="49.5" spans="1:26">
       <c r="A27" s="8">
         <v>312</v>
       </c>
@@ -3009,7 +3598,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="66" x14ac:dyDescent="0.2">
+    <row r="28" ht="66" spans="1:26">
       <c r="A28" s="8">
         <v>313</v>
       </c>
@@ -3063,7 +3652,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="66" x14ac:dyDescent="0.2">
+    <row r="29" ht="66" spans="1:26">
       <c r="A29" s="8">
         <v>318</v>
       </c>
@@ -3086,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M29" s="11">
         <v>1</v>
@@ -3104,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="8">
         <v>1</v>
@@ -3123,16 +3712,16 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="30" ht="33" spans="1:26">
       <c r="A30" s="8">
         <v>319</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="9">
@@ -3146,13 +3735,13 @@
         <v>1</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M30" s="11">
         <v>1</v>
@@ -3179,16 +3768,16 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="31" ht="33" spans="1:26">
       <c r="A31" s="8">
         <v>901</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="9">
@@ -3202,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M31" s="11">
         <v>1</v>
@@ -3233,16 +3822,16 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="32" ht="33" spans="1:26">
       <c r="A32" s="8">
         <v>10102</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E32" s="10">
         <v>4</v>
@@ -3258,13 +3847,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M32" s="11">
         <v>1</v>
@@ -3291,16 +3880,16 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:26">
       <c r="A33" s="8">
         <v>10202</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9">
@@ -3314,7 +3903,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M33" s="11">
         <v>2</v>
@@ -3343,16 +3932,16 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:26">
       <c r="A34" s="8">
         <v>10203</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9">
@@ -3366,7 +3955,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M34" s="11">
         <v>2</v>
@@ -3395,16 +3984,16 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:26">
       <c r="A35" s="8">
         <v>10204</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9">
@@ -3418,7 +4007,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M35" s="11">
         <v>2</v>
@@ -3447,16 +4036,16 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:26">
       <c r="A36" s="8">
         <v>20102</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9">
@@ -3470,7 +4059,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M36" s="11">
         <v>2</v>
@@ -3499,16 +4088,16 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:26">
       <c r="A37" s="8">
         <v>20103</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9">
@@ -3549,16 +4138,16 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="21" customHeight="1" spans="1:26">
       <c r="A38" s="8">
         <v>20104</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="9">
@@ -3572,13 +4161,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M38" s="11">
         <v>2</v>
@@ -3605,16 +4194,16 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:26">
       <c r="A39" s="11">
         <v>20105</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12">
@@ -3628,7 +4217,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="9"/>
       <c r="L39" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M39" s="11">
         <v>1</v>
@@ -3653,16 +4242,16 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:26">
       <c r="A40" s="8">
         <v>20201</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E40" s="8">
         <v>2</v>
@@ -3678,7 +4267,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M40" s="11">
         <v>1</v>
@@ -3705,16 +4294,16 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:26">
       <c r="A41" s="8">
         <v>20202</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="9">
@@ -3728,7 +4317,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M41" s="11">
         <v>2</v>
@@ -3757,16 +4346,16 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:26">
       <c r="A42" s="8">
         <v>20203</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9">
@@ -3807,16 +4396,16 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:26">
       <c r="A43" s="8">
         <v>20204</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E43" s="10">
         <v>10</v>
@@ -3832,7 +4421,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M43" s="11">
         <v>2</v>
@@ -3859,16 +4448,16 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:26">
       <c r="A44" s="11">
         <v>20205</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12">
@@ -3905,16 +4494,16 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:26">
       <c r="A45" s="11">
         <v>20206</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12">
@@ -3928,7 +4517,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="9"/>
       <c r="L45" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M45" s="11">
         <v>1</v>
@@ -3955,16 +4544,16 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" ht="33" x14ac:dyDescent="0.2">
+    <row r="46" ht="33" spans="1:26">
       <c r="A46" s="11">
         <v>401</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11">
@@ -3978,13 +4567,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M46" s="11">
         <v>1</v>
@@ -4011,16 +4600,16 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="1:26" ht="66" x14ac:dyDescent="0.2">
+    <row r="47" ht="66" spans="1:26">
       <c r="A47" s="11">
         <v>32003</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11">
@@ -4032,13 +4621,13 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M47" s="11">
         <v>1</v>
@@ -4050,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q47" s="11">
         <v>2</v>
@@ -4069,28 +4658,29 @@
   <sortState ref="A4:T37">
     <sortCondition ref="A4"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -4098,10 +4688,10 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4112,9 +4702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -4123,9 +4713,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -4134,9 +4724,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -4145,9 +4735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -4156,9 +4746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -4167,139 +4757,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -4310,9 +4900,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>158</v>
@@ -4321,53 +4911,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C26">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C27">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
@@ -4381,8 +4971,9 @@
     <sortState ref="A3:C28">
       <sortCondition ref="C3"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>